--- a/data/trans_camb/P25_6-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_6-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,56</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 11,16</t>
+          <t>-2,59; 13,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 7,48</t>
+          <t>-4,62; 9,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 7,83</t>
+          <t>-0,86; 20,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 7,84</t>
+          <t>-13,72; 9,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 6,25</t>
+          <t>-12,4; 13,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 4,75</t>
+          <t>-12,65; 13,2</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 8,28</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,75; 9,33</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 13,04</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>192,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-19,24%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>437,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>-15,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,12%</t>
+          <t>7,06%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14,29%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16,55%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>69,23%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,67; 163,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-64,86; 118,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,86; 163,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-57,57; 148,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 87,89</t>
+          <t>-76,73; 341,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,47; 71,23</t>
+          <t>-71,08; 346,39</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-65,18; 281,16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-69,99; 314,39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-46,37; 378,65</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>3,27</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,39</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 2,89</t>
+          <t>-6,48; 2,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 0,44</t>
+          <t>-8,3; 0,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 2,56</t>
+          <t>-5,72; 5,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 6,65</t>
+          <t>-4,02; 5,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 1,7</t>
+          <t>-4,38; 4,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 2,39</t>
+          <t>-1,82; 9,61</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 2,84</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 1,71</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,06; 5,56</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>-25,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-48,25%</t>
+          <t>-58,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,34%</t>
+          <t>-3,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,93%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,0%</t>
+          <t>71,38%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-8,27%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-28,4%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>31,01%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,75; 111,13</t>
+          <t>-78,18; 108,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,47; 23,57</t>
+          <t>-93,27; 50,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,29; 95,52</t>
+          <t>-70,26; 227,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,83; 235,51</t>
+          <t>-61,5; 231,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,68; 59,69</t>
+          <t>-65,22; 219,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,2; 72,77</t>
+          <t>-31,89; 425,11</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-54,0; 91,65</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-68,24; 61,95</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-33,34; 166,78</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 2,61</t>
+          <t>-13,83; 3,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 6,34</t>
+          <t>-11,16; 8,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,77</t>
+          <t>-12,8; 7,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,7</t>
+          <t>-1,6; 5,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,5</t>
+          <t>-3,78; 0,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 2,89</t>
+          <t>-1,57; 6,26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 3,05</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,96; 3,57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-5,16; 4,72</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-28,96%</t>
+          <t>-35,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>-0,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>159,27%</t>
+          <t>-16,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-41,9%</t>
+          <t>78,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>-61,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>72,64%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-8,57%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-11,25%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-82,89; 92,29</t>
+          <t>-91,8; 147,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-72,12; 188,67</t>
+          <t>-86,98; 298,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,55; —</t>
+          <t>-92,63; 255,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,91; 859,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-68,9; 114,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,02; 128,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-75,54; 146,28</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-84,32; 160,91</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-79,14; 196,15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 2,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 1,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-24,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 41,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,26; 29,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,72; 89,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 115,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,83; 42,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 38,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 2,28</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,48; 2,73</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 5,07</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,03; 3,77</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 2,9</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; 6,31</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 2,12</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; 2,01</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 4,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-19,99%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-23,77%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>13,78%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>14,01%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-1,94%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>60,57%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-4,21%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-13,53%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>35,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-66,39; 66,26</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-66,93; 87,14</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-54,79; 145,81</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-36,41; 133,35</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-56,3; 109,9</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-14,86; 210,41</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-42,93; 62,34</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-50,82; 57,64</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-21,51; 123,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
